--- a/Team-Data/2010-11/3-31-2010-11.xlsx
+++ b/Team-Data/2010-11/3-31-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>6.3</v>
@@ -696,28 +763,28 @@
         <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T2" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U2" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V2" t="n">
         <v>13.6</v>
@@ -735,13 +802,13 @@
         <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>3</v>
@@ -774,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -795,16 +862,16 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
         <v>5</v>
@@ -813,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
         <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.708</v>
+        <v>0.699</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
         <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>17.9</v>
       </c>
       <c r="P3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
@@ -899,16 +966,16 @@
         <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,28 +987,28 @@
         <v>20.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD3" t="n">
         <v>29</v>
       </c>
       <c r="AE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="n">
         <v>5</v>
       </c>
-      <c r="AF3" t="n">
-        <v>4</v>
-      </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -980,16 +1047,16 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
@@ -998,10 +1065,10 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.438</v>
+        <v>0.432</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>4.8</v>
@@ -1060,7 +1127,7 @@
         <v>14.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
@@ -1069,22 +1136,22 @@
         <v>24.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
         <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1093,7 +1160,7 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>20.2</v>
@@ -1102,13 +1169,13 @@
         <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1141,25 +1208,25 @@
         <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>24</v>
@@ -1168,16 +1235,16 @@
         <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
         <v>54</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.46</v>
@@ -1242,7 +1309,7 @@
         <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
@@ -1251,7 +1318,7 @@
         <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
@@ -1260,7 +1327,7 @@
         <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U5" t="n">
         <v>22</v>
@@ -1269,7 +1336,7 @@
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.8</v>
@@ -1278,19 +1345,19 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
@@ -1305,22 +1372,22 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1341,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
@@ -1350,13 +1417,13 @@
         <v>20</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>0.192</v>
+        <v>0.203</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1424,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
         <v>18.7</v>
@@ -1433,7 +1500,7 @@
         <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
@@ -1448,16 +1515,16 @@
         <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
         <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
@@ -1469,10 +1536,10 @@
         <v>94.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.1</v>
+        <v>-9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1496,13 +1563,13 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1520,22 +1587,22 @@
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1579,43 +1646,43 @@
         <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.703</v>
+        <v>0.716</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.473</v>
+        <v>0.476</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O7" t="n">
         <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R7" t="n">
         <v>9.4</v>
@@ -1627,13 +1694,13 @@
         <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1642,40 +1709,40 @@
         <v>3.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>4</v>
       </c>
-      <c r="AF7" t="n">
-        <v>5</v>
-      </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1705,16 +1772,16 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX7" t="n">
         <v>24</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1779,40 +1846,40 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M8" t="n">
         <v>20.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
         <v>32.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
         <v>22</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.3</v>
@@ -1824,19 +1891,19 @@
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
         <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1878,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>0.356</v>
+        <v>0.351</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1964,25 +2031,25 @@
         <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
         <v>16.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
         <v>27.1</v>
@@ -1994,7 +2061,7 @@
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2009,7 +2076,7 @@
         <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB9" t="n">
         <v>96.2</v>
@@ -2018,7 +2085,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2045,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2057,7 +2124,7 @@
         <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2069,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2155,19 +2222,19 @@
         <v>0.393</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
         <v>20.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T10" t="n">
         <v>40.3</v>
@@ -2176,7 +2243,7 @@
         <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
@@ -2188,25 +2255,25 @@
         <v>4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
         <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="n">
         <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -2239,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>11</v>
@@ -2248,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>25</v>
@@ -2260,16 +2327,16 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
         <v>7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>0.534</v>
+        <v>0.52</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,7 +2389,7 @@
         <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
@@ -2331,34 +2398,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
         <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
         <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.2</v>
@@ -2373,16 +2440,16 @@
         <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.6</v>
+        <v>106</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2394,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2412,16 +2479,16 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2433,25 +2500,25 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
         <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>18</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.453</v>
+        <v>0.447</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
         <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
@@ -2525,22 +2592,22 @@
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2552,16 +2619,16 @@
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2594,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2636,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>0.392</v>
+        <v>0.387</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,7 +2753,7 @@
         <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
         <v>0.458</v>
@@ -2698,7 +2765,7 @@
         <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
         <v>19.1</v>
@@ -2707,19 +2774,19 @@
         <v>26.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.712</v>
+        <v>0.711</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
         <v>42.1</v>
       </c>
       <c r="U13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
         <v>16.3</v>
@@ -2740,10 +2807,10 @@
         <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -2764,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2800,16 +2867,16 @@
         <v>10</v>
       </c>
       <c r="AV13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW13" t="n">
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2818,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2935,7 @@
         <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.466</v>
@@ -2877,34 +2944,34 @@
         <v>6.4</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="R14" t="n">
         <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U14" t="n">
         <v>22.1</v>
       </c>
       <c r="V14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>7.4</v>
@@ -2919,22 +2986,22 @@
         <v>18.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2946,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2961,10 +3028,10 @@
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,22 +3049,22 @@
         <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,7 +3117,7 @@
         <v>39.1</v>
       </c>
       <c r="J15" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.47</v>
@@ -3059,10 +3126,10 @@
         <v>3.7</v>
       </c>
       <c r="M15" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O15" t="n">
         <v>18.2</v>
@@ -3071,7 +3138,7 @@
         <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
@@ -3083,7 +3150,7 @@
         <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.8</v>
@@ -3098,7 +3165,7 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA15" t="n">
         <v>21.3</v>
@@ -3107,22 +3174,22 @@
         <v>100.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3143,13 +3210,13 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3179,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.699</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L16" t="n">
         <v>6.7</v>
@@ -3244,31 +3311,31 @@
         <v>18.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P16" t="n">
         <v>28.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
         <v>6.6</v>
@@ -3283,31 +3350,31 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.5</v>
+        <v>102.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>13</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
@@ -3346,19 +3413,19 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>25</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.411</v>
+        <v>0.405</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3423,7 +3490,7 @@
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.346</v>
@@ -3432,10 +3499,10 @@
         <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R17" t="n">
         <v>10.9</v>
@@ -3444,10 +3511,10 @@
         <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,13 +3523,13 @@
         <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3474,7 +3541,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3513,16 +3580,16 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>30</v>
@@ -3531,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3578,31 +3645,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>19.1</v>
@@ -3611,10 +3678,10 @@
         <v>0.374</v>
       </c>
       <c r="O18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.767</v>
@@ -3632,10 +3699,10 @@
         <v>20.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -3644,16 +3711,16 @@
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
@@ -3668,16 +3735,16 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3689,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
@@ -3707,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>0.301</v>
+        <v>0.311</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
@@ -3778,19 +3845,19 @@
         <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
         <v>17.6</v>
@@ -3799,16 +3866,16 @@
         <v>23.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
         <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U19" t="n">
         <v>20.8</v>
@@ -3823,7 +3890,7 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
         <v>22.2</v>
@@ -3832,13 +3899,13 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3859,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>21</v>
@@ -3868,13 +3935,13 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>24</v>
       </c>
       <c r="AP19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3886,13 +3953,13 @@
         <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3969,10 +4036,10 @@
         <v>5.4</v>
       </c>
       <c r="M20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
         <v>17.8</v>
@@ -3984,10 +4051,10 @@
         <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
         <v>40.4</v>
@@ -3996,22 +4063,22 @@
         <v>20.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB20" t="n">
         <v>95.09999999999999</v>
@@ -4032,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4056,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
         <v>14</v>
@@ -4065,22 +4132,22 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
         <v>19</v>
@@ -4092,10 +4159,10 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>38.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.457</v>
@@ -4151,31 +4218,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.8</v>
@@ -4184,7 +4251,7 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
@@ -4196,10 +4263,10 @@
         <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD21" t="n">
         <v>3</v>
@@ -4208,13 +4275,13 @@
         <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,25 +4299,25 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
@@ -4259,13 +4326,13 @@
         <v>11</v>
       </c>
       <c r="AW21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY21" t="n">
         <v>9</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>11</v>
       </c>
       <c r="AZ21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.671</v>
+        <v>0.676</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
         <v>80.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -4336,13 +4403,13 @@
         <v>17</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.823</v>
@@ -4351,40 +4418,40 @@
         <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T22" t="n">
         <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>13.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
         <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4396,13 +4463,13 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
@@ -4414,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,13 +4496,13 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>14</v>
@@ -4444,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.622</v>
+        <v>0.627</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>78.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4524,31 +4591,31 @@
         <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y23" t="n">
         <v>3.9</v>
@@ -4557,13 +4624,13 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
@@ -4578,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4599,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4617,10 +4684,10 @@
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>26</v>
@@ -4638,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>39</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.527</v>
+        <v>0.52</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4700,13 +4767,13 @@
         <v>15.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.771</v>
@@ -4715,37 +4782,37 @@
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>22.7</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y24" t="n">
         <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA24" t="n">
         <v>18.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD24" t="n">
         <v>3</v>
@@ -4754,19 +4821,19 @@
         <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -4778,19 +4845,19 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>7</v>
@@ -4811,7 +4878,7 @@
         <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -4852,13 +4919,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
         <v>0.486</v>
@@ -4870,7 +4937,7 @@
         <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
@@ -4882,7 +4949,7 @@
         <v>23</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
         <v>18</v>
@@ -4891,7 +4958,7 @@
         <v>23.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
@@ -4900,10 +4967,10 @@
         <v>30.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.3</v>
@@ -4921,25 +4988,25 @@
         <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4972,16 +5039,16 @@
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV25" t="n">
         <v>18</v>
@@ -4999,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.573</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
         <v>18.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
         <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
@@ -5097,64 +5164,64 @@
         <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
         <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5181,13 +5248,13 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.274</v>
+        <v>0.284</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5249,13 +5316,13 @@
         <v>0.347</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R27" t="n">
         <v>13.1</v>
@@ -5267,13 +5334,13 @@
         <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
         <v>16.3</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.8</v>
@@ -5285,16 +5352,16 @@
         <v>22.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC27" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5312,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5324,16 +5391,16 @@
         <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,13 +5409,13 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
         <v>24</v>
       </c>
       <c r="AV27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,13 +5427,13 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5401,67 +5468,67 @@
         <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.757</v>
+        <v>0.77</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J28" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q28" t="n">
         <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
@@ -5470,13 +5537,13 @@
         <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,16 +5555,16 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5509,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ28" t="n">
         <v>16</v>
@@ -5527,31 +5594,31 @@
         <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
-        <v>0.274</v>
+        <v>0.27</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
       </c>
       <c r="M29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.316</v>
@@ -5631,7 +5698,7 @@
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.7</v>
@@ -5643,13 +5710,13 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB29" t="n">
         <v>99.3</v>
@@ -5658,28 +5725,28 @@
         <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5691,16 +5758,16 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5712,19 +5779,19 @@
         <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.493</v>
+        <v>0.48</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5825,40 +5892,40 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="n">
         <v>13</v>
       </c>
-      <c r="AE30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
@@ -5867,10 +5934,10 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5882,7 +5949,7 @@
         <v>9</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
@@ -5891,7 +5958,7 @@
         <v>27</v>
       </c>
       <c r="AU30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
@@ -5900,7 +5967,7 @@
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5912,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.247</v>
+        <v>0.243</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O31" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P31" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U31" t="n">
         <v>19.7</v>
@@ -6016,13 +6083,13 @@
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,13 +6104,13 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
@@ -6055,22 +6122,22 @@
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2010-11</t>
+          <t>2011-03-31</t>
         </is>
       </c>
     </row>
